--- a/tut06/output/2001EE66.xlsx
+++ b/tut06/output/2001EE66.xlsx
@@ -493,7 +493,7 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -502,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -669,7 +669,7 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
